--- a/2022-02-11/checklist.xlsx
+++ b/2022-02-11/checklist.xlsx
@@ -5,18 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gits\gradys-raw-data\2022-02-data a definir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gits\gradys-raw-data\2022-02-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9459610-6C2A-4603-BF37-B6B2E4508F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EDB215-368A-408B-A7EE-77F960AD4531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="10176" windowWidth="24096" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="6948" windowWidth="17400" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre field" sheetId="1" r:id="rId1"/>
     <sheet name="On Field" sheetId="2" r:id="rId2"/>
     <sheet name="After field" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'On Field'!$A$2:$C$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Pre field'!$A$1:$C$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -144,6 +148,69 @@
   </si>
   <si>
     <t>Sync GITHub</t>
+  </si>
+  <si>
+    <t>Telefones nos cones</t>
+  </si>
+  <si>
+    <t>Testar uma coletinha na mesa</t>
+  </si>
+  <si>
+    <t>Papel nas caixinhas</t>
+  </si>
+  <si>
+    <t>Organizar como serão despejadas</t>
+  </si>
+  <si>
+    <t>Levar a tinta junto com os cones, caixas e sensores</t>
+  </si>
+  <si>
+    <t>UAV 21: checa o plano de voo</t>
+  </si>
+  <si>
+    <t>UAV 21: checa se tudo esta em RTL</t>
+  </si>
+  <si>
+    <t>UAV 21: checa a voltagem do RTL pensando nos 5m/s</t>
+  </si>
+  <si>
+    <t>UAV 22: checa o plano de voo</t>
+  </si>
+  <si>
+    <t>UAV 22: checa se tudo esta em RTL</t>
+  </si>
+  <si>
+    <t>UAV 22: checa a voltagem do RTL pensando nos 5m/s</t>
+  </si>
+  <si>
+    <t>UAV 23: checa o plano de voo</t>
+  </si>
+  <si>
+    <t>UAV 23: checa se tudo esta em RTL</t>
+  </si>
+  <si>
+    <t>UAV 23: checa a voltagem do RTL pensando nos 5m/s</t>
+  </si>
+  <si>
+    <t>Posicionar os sensores no lugar deles - LEVANDO UM UAV VIRTUAL NA MÃO</t>
+  </si>
+  <si>
+    <t>Voltar andando fazendo uma coleta na mão</t>
+  </si>
+  <si>
+    <t>Monta mesa lá atrás no heliponto</t>
+  </si>
+  <si>
+    <t>Caixa plástica e guarda chuva por causa da Chuva</t>
+  </si>
+  <si>
+    <t>Preparar para usar dois UAVs na alternância</t>
+  </si>
+  <si>
+    <t>Dá para rodar um follow?</t>
+  </si>
+  <si>
+    <t>Dá para teste o GS do breno? Como?  Um auto? Pertinho?</t>
   </si>
 </sst>
 </file>
@@ -209,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +571,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C28" sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,13 +974,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41F45B6-5190-4B09-8875-DE458F4CAB7B}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="A2:C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="C69" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
